--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H2">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I2">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J2">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.628421</v>
+        <v>1.103724333333333</v>
       </c>
       <c r="N2">
-        <v>4.885263</v>
+        <v>3.311173</v>
       </c>
       <c r="O2">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="P2">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="Q2">
-        <v>0.268012584671</v>
+        <v>0.03028251662555555</v>
       </c>
       <c r="R2">
-        <v>2.412113262039</v>
+        <v>0.27254264963</v>
       </c>
       <c r="S2">
-        <v>0.001684689432335392</v>
+        <v>0.0001378143086299991</v>
       </c>
       <c r="T2">
-        <v>0.001684689432335392</v>
+        <v>0.0001378143086299991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H3">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I3">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J3">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>28.377195</v>
       </c>
       <c r="O3">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="P3">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="Q3">
-        <v>1.556813906981667</v>
+        <v>0.2595252133833333</v>
       </c>
       <c r="R3">
-        <v>14.011325162835</v>
+        <v>2.33572692045</v>
       </c>
       <c r="S3">
-        <v>0.009785913375763131</v>
+        <v>0.001181087037670236</v>
       </c>
       <c r="T3">
-        <v>0.009785913375763129</v>
+        <v>0.001181087037670236</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H4">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I4">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J4">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.96489266666667</v>
+        <v>47.61312599999999</v>
       </c>
       <c r="N4">
-        <v>65.894678</v>
+        <v>142.839378</v>
       </c>
       <c r="O4">
-        <v>0.6518893670423564</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="P4">
-        <v>0.6518893670423563</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="Q4">
-        <v>3.615077216281556</v>
+        <v>1.30634546702</v>
       </c>
       <c r="R4">
-        <v>32.535694946534</v>
+        <v>11.75710920318</v>
       </c>
       <c r="S4">
-        <v>0.02272386720504985</v>
+        <v>0.005945116768048392</v>
       </c>
       <c r="T4">
-        <v>0.02272386720504984</v>
+        <v>0.005945116768048392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H5">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I5">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J5">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6418243333333332</v>
+        <v>0.8190333333333334</v>
       </c>
       <c r="N5">
-        <v>1.925473</v>
+        <v>2.4571</v>
       </c>
       <c r="O5">
-        <v>0.01904850912583785</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="P5">
-        <v>0.01904850912583786</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="Q5">
-        <v>0.1056342300187778</v>
+        <v>0.02247154455555556</v>
       </c>
       <c r="R5">
-        <v>0.9507080701689998</v>
+        <v>0.202243901</v>
       </c>
       <c r="S5">
-        <v>0.0006640019207455408</v>
+        <v>0.0001022669421787296</v>
       </c>
       <c r="T5">
-        <v>0.0006640019207455409</v>
+        <v>0.0001022669421787296</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H6">
         <v>10.104987</v>
       </c>
       <c r="I6">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J6">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.628421</v>
+        <v>1.103724333333333</v>
       </c>
       <c r="N6">
-        <v>4.885263</v>
+        <v>3.311173</v>
       </c>
       <c r="O6">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="P6">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="Q6">
-        <v>5.485057678509001</v>
+        <v>3.717706679972333</v>
       </c>
       <c r="R6">
-        <v>49.365519106581</v>
+        <v>33.459360119751</v>
       </c>
       <c r="S6">
-        <v>0.03447830152482418</v>
+        <v>0.01691910821431331</v>
       </c>
       <c r="T6">
-        <v>0.03447830152482418</v>
+        <v>0.01691910821431331</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H7">
         <v>10.104987</v>
       </c>
       <c r="I7">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J7">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>28.377195</v>
       </c>
       <c r="O7">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="P7">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="Q7">
-        <v>31.86124295238501</v>
+        <v>31.861242952385</v>
       </c>
       <c r="R7">
         <v>286.751186571465</v>
       </c>
       <c r="S7">
-        <v>0.2002752944188948</v>
+        <v>0.1449990178778549</v>
       </c>
       <c r="T7">
-        <v>0.2002752944188947</v>
+        <v>0.1449990178778549</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H8">
         <v>10.104987</v>
       </c>
       <c r="I8">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J8">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.96489266666667</v>
+        <v>47.61312599999999</v>
       </c>
       <c r="N8">
-        <v>65.894678</v>
+        <v>142.839378</v>
       </c>
       <c r="O8">
-        <v>0.6518893670423564</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="P8">
-        <v>0.6518893670423563</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="Q8">
-        <v>73.98498495102068</v>
+        <v>160.376673086454</v>
       </c>
       <c r="R8">
-        <v>665.8648645591861</v>
+        <v>1443.390057778086</v>
       </c>
       <c r="S8">
-        <v>0.465059215228576</v>
+        <v>0.729866694868315</v>
       </c>
       <c r="T8">
-        <v>0.4650592152285759</v>
+        <v>0.729866694868315</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H9">
         <v>10.104987</v>
       </c>
       <c r="I9">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J9">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6418243333333332</v>
+        <v>0.8190333333333334</v>
       </c>
       <c r="N9">
-        <v>1.925473</v>
+        <v>2.4571</v>
       </c>
       <c r="O9">
-        <v>0.01904850912583785</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="P9">
-        <v>0.01904850912583786</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="Q9">
-        <v>2.161875514872333</v>
+        <v>2.758773728633333</v>
       </c>
       <c r="R9">
-        <v>19.456879633851</v>
+        <v>24.8289635577</v>
       </c>
       <c r="S9">
-        <v>0.01358924558860143</v>
+        <v>0.0125550494623474</v>
       </c>
       <c r="T9">
-        <v>0.01358924558860143</v>
+        <v>0.0125550494623474</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H10">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I10">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J10">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.628421</v>
+        <v>1.103724333333333</v>
       </c>
       <c r="N10">
-        <v>4.885263</v>
+        <v>3.311173</v>
       </c>
       <c r="O10">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="P10">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="Q10">
-        <v>1.935522202355</v>
+        <v>0.3629726238005556</v>
       </c>
       <c r="R10">
-        <v>17.419699821195</v>
+        <v>3.266753614205</v>
       </c>
       <c r="S10">
-        <v>0.01216642048492142</v>
+        <v>0.001651871336164836</v>
       </c>
       <c r="T10">
-        <v>0.01216642048492142</v>
+        <v>0.001651871336164836</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H11">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I11">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J11">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>28.377195</v>
       </c>
       <c r="O11">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="P11">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="Q11">
-        <v>11.24293430324167</v>
+        <v>3.110723881008334</v>
       </c>
       <c r="R11">
-        <v>101.186408729175</v>
+        <v>27.996514929075</v>
       </c>
       <c r="S11">
-        <v>0.0706715045950668</v>
+        <v>0.01415675804956736</v>
       </c>
       <c r="T11">
-        <v>0.07067150459506678</v>
+        <v>0.01415675804956736</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H12">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I12">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J12">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.96489266666667</v>
+        <v>47.61312599999999</v>
       </c>
       <c r="N12">
-        <v>65.894678</v>
+        <v>142.839378</v>
       </c>
       <c r="O12">
-        <v>0.6518893670423564</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="P12">
-        <v>0.6518893670423563</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="Q12">
-        <v>26.10721516651889</v>
+        <v>15.65813197157</v>
       </c>
       <c r="R12">
-        <v>234.96493649867</v>
+        <v>140.92318774413</v>
       </c>
       <c r="S12">
-        <v>0.1641062846087306</v>
+        <v>0.07125942202168659</v>
       </c>
       <c r="T12">
-        <v>0.1641062846087306</v>
+        <v>0.07125942202168659</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H13">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I13">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J13">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6418243333333332</v>
+        <v>0.8190333333333334</v>
       </c>
       <c r="N13">
-        <v>1.925473</v>
+        <v>2.4571</v>
       </c>
       <c r="O13">
-        <v>0.01904850912583785</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="P13">
-        <v>0.01904850912583786</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="Q13">
-        <v>0.7628649146494443</v>
+        <v>0.2693486670555555</v>
       </c>
       <c r="R13">
-        <v>6.865784231844999</v>
+        <v>2.4241380035</v>
       </c>
       <c r="S13">
-        <v>0.004795261616490883</v>
+        <v>0.001225793113223205</v>
       </c>
       <c r="T13">
-        <v>0.004795261616490884</v>
+        <v>0.001225793113223205</v>
       </c>
     </row>
   </sheetData>
